--- a/agents/AHFV/AHFV-Data-Contents.xlsx
+++ b/agents/AHFV/AHFV-Data-Contents.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">This is not an agent/disease listed by the World Organisation for Animal Health (OIE). Geographical distribution can therefore not be mapped directly from any available reports. </t>
+    <t xml:space="preserve">This is not an agent/disease listed by the World Organisation for Animal Health (WOAH). Geographical distribution can therefore not be mapped directly from any available reports. </t>
   </si>
   <si>
     <t xml:space="preserve">sub-title</t>
@@ -207,7 +207,7 @@
     <t xml:space="preserve">Diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">There are no OIE- recommended standard tests for AHV.</t>
+    <t xml:space="preserve">There are no WOAH- recommended standard tests for AHV.</t>
   </si>
   <si>
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews covering peer-reviewed literature in English since 1970, covering diagnostic tests approved for use in the European Union (EU). </t>
@@ -471,7 +471,7 @@
     <t xml:space="preserve">ref001</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE-WAHIS (OIE World Animal Health Information System)</t>
+    <t xml:space="preserve">WOAH-WAHIS (WOAH World Animal Health Information System)</t>
   </si>
   <si>
     <t xml:space="preserve">https://wahis.oie.int/</t>
@@ -498,7 +498,7 @@
     <t xml:space="preserve">ref005</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. OIE, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. WOAH, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/en/what-we-do/standards/codes-and-manuals/terrestrial-code-online-access/?id=169&amp;L=0&amp;htmfile=chapitre_notification.htm</t>
@@ -525,7 +525,7 @@
     <t xml:space="preserve">ref008</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health) Technical Disease Card: African swine fever. 2021.</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health) Technical Disease Card: African swine fever. 2021.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/app/uploads/2021/03/oie-african-swine-fever-technical-disease-card.pdf</t>
@@ -534,7 +534,7 @@
     <t xml:space="preserve">ref009</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2021. African Swine fever. Chapter 15.1. OIE Terrestrial Animal Health Code, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2021. African Swine fever. Chapter 15.1. WOAH Terrestrial Animal Health Code, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahc/current/chapitre_asf.pdf</t>
@@ -543,7 +543,7 @@
     <t xml:space="preserve">ref010</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2019. African Swine fever. Chapter 3.08.01. OIE Terrestrial Manual, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2019. African Swine fever. Chapter 3.08.01. WOAH Terrestrial Manual, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahm/3.08.01_ASF.pdf</t>

--- a/agents/AHFV/AHFV-Data-Contents.xlsx
+++ b/agents/AHFV/AHFV-Data-Contents.xlsx
@@ -84,7 +84,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref011:here}. Data fields are explained in this {ref012:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref013:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref013:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">map</t>
@@ -126,7 +126,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref014:here}. Data fields are explained in this {ref015:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health</t>
@@ -138,7 +138,7 @@
     <t xml:space="preserve">HTML file</t>
   </si>
   <si>
-    <t xml:space="preserve">Impact-AHV.html</t>
+    <t xml:space="preserve">ExperimentalInfections-AHV.html</t>
   </si>
   <si>
     <t xml:space="preserve">Agent</t>
@@ -177,7 +177,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref017:here}. Data fields are explained in this {ref018:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Survival-AHV.html</t>
@@ -234,7 +234,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref020:here}. Data fields are explained in this {ref021:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Diagnostic-AHV.html</t>

--- a/agents/AHFV/AHFV-Data-Contents.xlsx
+++ b/agents/AHFV/AHFV-Data-Contents.xlsx
@@ -180,7 +180,7 @@
     <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
-    <t xml:space="preserve">Survival-AHV.html</t>
+    <t xml:space="preserve">PathogenSurvival-AHV.html</t>
   </si>
   <si>
     <t xml:space="preserve">Transmission</t>

--- a/agents/AHFV/AHFV-Data-Contents.xlsx
+++ b/agents/AHFV/AHFV-Data-Contents.xlsx
@@ -333,7 +333,7 @@
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews (SLR) covering all vaccine efficacy studies  published in peer-reviewed literature in English since 1970, when evaluating vaccines approved for use in the European Union. </t>
   </si>
   <si>
-    <t xml:space="preserve">No vaccines for AHFV were available at the time of the latest SLR.  The next update is planned for 2022.</t>
+    <t xml:space="preserve">No vaccines for AHFV were available at the time of the latest SLR.  The next update is planned for 2023.</t>
   </si>
   <si>
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref023:here}, for pathogens which have available vaccines. Data fields are explained in this {ref024:read-me file}.</t>

--- a/agents/AHFV/AHFV-Data-Contents.xlsx
+++ b/agents/AHFV/AHFV-Data-Contents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DiseaseProfiles\agents\AHFV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\Azure\storymaps\agents\AHFV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB50816A-6614-4C9F-8B9C-9D043CE223B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4903C37A-8534-40B8-95DA-9A6053D48041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1147,13 +1147,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129:D129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>3</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>5</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>6</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>7</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>8</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>9</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>10</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>11</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>12</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>13</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>14</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>15</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>13</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>14</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>15</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>8</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>9</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>7</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>9</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>10</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>11</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>12</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>6</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>7</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>9</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>10</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>11</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>12</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>13</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>14</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>15</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>16</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>17</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>18</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>19</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>20</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>21</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>22</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>23</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>24</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>6</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>7</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>8</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>9</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>10</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>4</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>6</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>7</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>3</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>4</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>6</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>7</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>8</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>9</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>10</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>11</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>12</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>13</v>
       </c>
@@ -3337,16 +3337,16 @@
         <v>10</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E129" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>3</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>4</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>5</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>7</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>3</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>3</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>4</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>5</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>7</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>8</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>9</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>10</v>
       </c>
@@ -3749,9 +3749,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>148</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>151</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>154</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>160</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>169</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>172</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>175</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>178</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>181</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>184</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>187</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>190</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>193</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>196</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>199</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>202</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>205</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>208</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>211</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>214</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>217</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>220</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>229</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>232</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>235</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>238</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>241</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>244</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>247</v>
       </c>
